--- a/Testdata/TC_53.xlsx
+++ b/Testdata/TC_53.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>BxoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAkkpJ34zVmGehmR6hkGZJcr/NSjMixNfWIVMmhbb0lQIoUaYqiKDZFekWfUhTodtEmQLrby78Ea+/2qb/QMxcOSUnOVtuFseac25w5c65j9M71nFmXJE5oFD6suDWnYpHQjwIanj+spPys6t6vvOOh7rVP2BGO8ZxwILaAK0z2rhP6sDLjfLFn21dXV7WrRi2Kz+2647j2o0F/7M/IHFdpmHAc+qRiuILXc1U81A7mA8JxgDlWnA8rvXGv1ibU7wBsgEN8TuJaK01oSJKkG3LKKUkEZ0wwJ+3O4LvqYF69dr/mInsNnlO2UsoCRVeiVHBNB9uSCZ0Tr+64u1Vnt9pwJ66z5zT26js15/7uexmjIUR9nPAxiS+pLwFjjucLye7sNlzXcRr1HWRvJAJZuQE8NGTBiFzShARtwliylUVsfYFNn8OptzOmg+wCrxb05iocxHgxm1DOyHZqjAYtax5qXXIhHtqPYuKD/d5IpUNyNYy1WSeLPmAnMxrzZQcvt5Z1nJB4uBBG2o7VQ50o5E1GYn68gLsmAbgCIDwepwTZdyBzpg5NfPimYUoC7wyzpMhUQqKTKL5IFtgnhxDHtpBxFbIIB+BwnCac+kkuYA2DjuJoASJh91bEgn0Qm1FvwBjZvRCMLDZuRdHFqvgyEsl7lTcMtzrHRv4aHI1n0dUwZMtxOk38mE5J0Gll1BtxSISk5m6nCY/moEUOQgpWgAwGby3hH0ThKgZ1iE/nmB0xsGTiNUBQCYCaKY/OKG9HLJ2HxqQrUHQCh5qQa3NIs0ZDuOFQGD4Ke2FGr7xhI6rMMIquzJ7rCGmHAriZ+JmjrSNWiTsAy25wHSMvRZxynzIoEsXrKEDLjjGeEcI3eoXCIJEP90XZ8ZqMITtfInBN8G9Qw3OgclTlz8SBbCx+YFuDRt0wuJsuQ6LDdD6cQgxfygN5LuBWQAiOwFoMhxcAPaF8dtjMVN+AQerAd9Kv4xBE64LhpQQboxRhqBf6LA2ISgK98Ex6pNBNU9+JR2ugPsS1h3C4nCwXIhnYd1B0yBlOGdQnDmnkPM8QK2DUTC5WaYogdByz7II9Uf0TKP9+MK/5kCBFiav50VwAbKi6J2NkF+lFlvdJNzzv4/A8hTxq7LgKN+4lMsAkxmEijmPS5oqnbSZC2b2odO6tXy6yV0jQhMwXUYzZAGxC99NQVktdDsC4A8xnegVRy4if2dfOWQ1XWalM59eRyfBTJxDpvRh+BaikEg6vmgwV+mUYEmccRAGUeczoNC452EYcXFZe/DJXE6fbshBm9odGExLLd8hSdB/5QsOFv3puhpAr1AaVvPFoZ7d+D1oqSNpijeSJRwQzqwstKCdWL7wkCZ8D2541IgkN4Ititme9S6aEQsBLE+mQ25q7yIf2Y/KDFFrppVSlCfqWIWUCSKXnNMRsndBgcgbvlOCYLQuE6qj9yAe62x/96+bXT188+/z248evvvzwP3//5Yt//PTmyQ/h4/Yvf7355BfqmIoYTfCUEanQpLW76zSgG81BSKcGqO9B6nMJOz2V9d6skW5c5aLd7bUP+i2ZSwwwYxe9RCqCoY+XUZovx+oQciN5pXbmCYrEm2S5Sa9L2A4RRV5FoehRL0mZuoi/i1HZ4uXzz18+/9Od3NpgeV1xHzy4V3Xrry070O27a3Sm7IjeX7V22WSxU3XuVev1AvEKDRrBgASdnLFTL/AarvPAqTcc1+TxwDjyJqJVlJY0wef2Cp8CtaM05PHSuEBxnSGl408gRAxahUJhoV30yx+/+vPjEpW2roaUpYByURorb7KzhRR9OJpY4+HxqN21Jt2x8JMcV6BTwr+BWO9u4qnkVGGYYvYWjMViKLYq0OxVrOjMItifWUuIxEIclpxtE1Rt9IYiV7U8iKN0oW6kwJBDN1CabLKRY0OukThpz7Wkk6M2kCtdb/72xSYGfRDtZsch5Wa+K8JQCaNABbyO2s/++eKrj148e3b79Gc3X31QkqD3MWMP+DlEU3Fp3B5Snq43KxB0MpbGvHC+V6gvGiiaxqOIhjzx3PuyX9QrBKyukCZ/o94cSp4ULO0F8BUIehcn3WuuA9s7RHYZAHouMFTbKG+rDUDl8Nyu//7Nb29/9cXtp09fffTHm4//cPPJpy+f/+7Vk9+rqLt9/PT2J090ll8tBFIX0ayrBtCS459viWi0RO22vn7/51YYcQt6DiuVGenr9z8rCBOKyu4klwztnFGkrMIaaZFZ8FkFVYwOJT7DohqAtihhDUOhi1i0oH6+yXtVIUrEnUR8qzeppgmxIminvg0nKRPnzP8rn2ZRJfXobafu1jVWaSOOMMVJwfQHLJpCk5Eh5Gy1QlLi+maGnFbud9Aftpr9nEQpMYwDGMUcMSCKD5T1lKKk9JJsZYaKHAJYaPz8lIlxeI1sHWUkF9KYrefKs2Yg0t/msaxEAdN5HKuGKNRvleN0Ad0w1w3s3Xj5LFPofw9Vr1rsiPN1r1PGw7qAhUJYRguAxMvUpFEqTfUSMcKqdvZQmCZfAq70lAPm0M+RqtO6hL4ytkXe6cZxFG9MPjkmIxtAJw0Zxc4tbmjknaquO8jvKgNkCc98qKlPnzDqEEb4dm91ds49iC7fmBfuflvWXjJkgTbmdqOHMUsuoPhgKRzl/32vVM7WjGNorMTbxtYPjNnQOoJZd0tt1FEko5gAYXf9ArhP44Q/EplAfynIqYGcqg71kRi41Idcn8p6p770IbV0u6RmFrpcPRtHrE/ndMux0MniuywEbLlYqBaut52niNJySK6hwSxIgKQ4/T6UDTHybCdNOSzkUsMv3mkSej7j2yr29hSTgEydqj8l9epO4OxWHxDSqLou/I/9et1x7olHHi0cMgclV1tuYmcXlv85x/svpOCSXAcaAAA=</t>
+          <t>3xsAAB+LCAAAAAAAAAOlGVlv48b5rxB6aoFIPOQbswx02REqWYYk1+u8FCNyZE1NkSo5tK23FGiRIk0QFMWmSE/0KUWBbhdtAqS7Pf5LsPZun/oX+s3BS5KzoWMYMOe75ptvvnOM3r6Ze9oVCSMa+I8qZs2oaMR3Apf6F48qMZtWzZ3K2zbq3DjEO8EhnhMGxBpw+dHBTUQfVWaMLQ50/fr6unZdrwXhhW4Zhqk/7vdGzozMcZX6EcO+Qyopl/tmroqNWu68Txh2McOS81GlO+rWWoQ6bYD1sY8vSFhrxhH1SRR1fEYZJRHnDAlmpNXuf18ezLZqOzUT6WvwjLIZU8+VdAVKCVd0sC0Z0zmxLcMyqsZe1doaG/sHdfPA3K2Ze7vvJowpIerhiI1IeEUdARgxPF8IdmPP2jL266a5i/SNRCArM4CNBp47JFc0Im6LeF5UyiK6usCGw+DU5YxpID3HqwQ9XIWjEC9mY8o8Upb9MAiJA4Z60N7H5HoQKvuNFz3Ajmc0ZMs2XpaWdRqRcLDg1ijHaqN24LOGR0J2uoBLJS7cOSBsFsYE6fcgM6Y2jRz4pn5MXHuKvSjPVECisyC8jBbYIccQsDqXce17AXbBsxiNGHWiTMAaBp2EwQJEwu7NwHMPQWxCvQGTyu76YGS+cTMILlfFF5FIeIHwB7jVOU7lr8HRaBZcD3xvOYonkRPSCXHbzYR6Iw7x2FPcrThiwRy0yEBIwnKQfv+tJfxAuK1iUJs4dI69Ew8sGdl1EFQAoEbMgillrcCL535q0hUoOoNDjclNesh0jQZwwz43fOB3/YReesNGVJFhGFyne64jhB1y4EbkJI62jlglbgMsucF1jLgUfspD6kE1yF9HDlp0jNGMELbRKyQG8cR3yOuL3fA8pGdLBK4J/g1q2AaUiKr4HRvGgfiFbVM06vju/XQJEh3H88EEYvhKHMg2AbcCQnAEr+lh/xKgZ5TNjhuJ6hswSB74Xvp1HIJoXXh4KcCpUfIw1PUdL3aJTAJdfyo8kuumqO/FozVQD+Ka5wAyxbEHdYZBlrjIEsAKGDWiy1WaPAidhl5yfzav4hGUcced1xzIf7xU1ZxgzgE6VM+zEdLz9DyJO6TjX/SwfxFDmkzNtApPvYcH+DjEfsTPk2bFFUfaTIQSs8tsba/fHdJXSNCYzBdBiL0+2IQexr6oeirbgxH7mM3UCoLSI07OwAlrylVUKtH5TWQiuuQJePbOR1cOKqi4P8tmQUZ2EYb4GfuBC+Uae3QSFvxnIw4uK6ttiSfx05Wsc4n9oWGEvPE9suRdRLZQ8PFyQWwzQYgVaoFK9mi4tWdtG3ULcjJfI3HiIcGe1oFWkhGt61+RiM2B7UAbkoi68EWxd6C9QyaEQjwLE6mIKs2d50OHIflRDC3xUqjSAH2LkCIBZMoL6mNvnTDFZAz2OcGht8wRyqP2Agfo7n72n9vfPnv5/LO7D568/uIn//vnr1/+6+Pbpz+Fj7u//f32w1/JY0piNMYTjwiFxs29PaO+BY6WghA3ri4Kuxs7TMDOz0U5T9dINaBi0ep0W0e9JnhUDpiw81Yh5sHQw8sgzpYjeQixkbhSPfEESWKPhbxsXcC2Ca/hMgp5r3lFitR5/H2M0havXnz26sVf7uVWBsvKhrm/v101rTdWFcswzTW6tKrwHl52bmpCMLeqxnbVsnLEKzRoCIMONGqpnbquXTeNfcOqG2aiP8ASR95EtIpSksb4Ql/hk6BWEPssXKYukF8nSOH4YwiRFC1DIbdQLvrFz1//9UmBSllXQYpSQLkgDqU36clCiD4ejrXR4HTY6mjjzoj7SYbL0UnhX0Osdk/jqeBUvh9j7y0Yb/lwq1Wgl6towVQj2JlpS4jEXBwWnG0TVG70QJGrWh6FQbyQN5JjyKAbKNNsspFjQ64ROGHPtaSToTaQS11v//H5JgZ1EOVmpz5l9rDf1OZ+6pcChgoYCcrhVdR++u+XX77/8vnzu2e/uP3yxwUJap90qgE/h2jKL1O3h5Sn6s0KBJ2NhDEvjR/k6osC8p7wJKA+i2xzR7SDaoWA1eTSxF/UnUPJE4KFvQC+AkHv4Khzw1Rg28dILwJAzwWGahtkXXMKkDk8s+t/f/f7u998fvfJs9fv//n2gz/dfvjJqxd/eP30jzLq7p48u/voqcryq4VA6MJ7cdkBamK6czQejRqv3dpX7/1S8wOmQc+hxSIjffXepzlhXFHRnWSSoZ1LFSmqsEaaZ+Z8Wk6VVIcCX8oiG4AWL2H1lEIVsWBBnWyTd6tcFI87gfhOd1yNI6IF0E59F05SJM6YvymfYpEl9WTXsExLYaU2/AgTHOVMf+QFE2gyEoQYnVZIClxfz5DRiv2OeoNmo5eRSCUGoQuTlsHnP/6BulHSVaZzQgYBLDR7TuzxCXeNbB2Fkq9c6tLVqDhtuDzlbZ60ChQwcIehbIJ89c44ihfQATPVtN6PFy8tuZ73WPan+S44W3fbRTysc1gofkU0Bwi8SEcKJVNTN+JTqWxhj7lpsiXgCq8zYA71lCi7qyvoJUOd55pOGAbhxoSTYRKyPnTPkEX0zOIpjc63lJ22m91VAkiSXPrBe/U0FwZt4hFW+p0t4e4HVw/mhbsvy9qNBp6rjFlu3EjNkgnIPzZyRymrTCMMoW3iDxOlXwd71L/slju9vW0QTIyJC53o1s6WtTex9idke6dubpOdXTKFxlEI5eMnF8EnFz67ldsEmsUiezZjD2HqLilNGlgw8lkULCUCUiX2dI0OaRixxzxFqS8JOU8h57J1fsz1kx9ifS4KsfxSL9BqM72gdZJfmHyXDrwendOS86qRJKGiEHCDxUL2lmUvFGreMbmBzjcnAbL15IdQz/gsVk6ajCpI8il/ImsUT0qL0xPmE8Bzx3oYd8eFvuzh3OKNl3rfQgHReT1URNeP6MWMlb1Xa3+/TnaIVbWmjlPdgkUVqvGk6uLpvmkY07q7bfG3OSUcqgMl1yU34TWFRjBXlOfTV/5NZ/8fBFx4c98bAAA=</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM,yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -522,4 +522,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>17</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458C142F-7696-47E4-9E62-4FAD5663B1E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_53.xlsx
+++ b/Testdata/TC_53.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3xsAAB+LCAAAAAAAAAOlGVlv48b5rxB6aoFIPOQbswx02REqWYYk1+u8FCNyZE1NkSo5tK23FGiRIk0QFMWmSE/0KUWBbhdtAqS7Pf5LsPZun/oX+s3BS5KzoWMYMOe75ptvvnOM3r6Ze9oVCSMa+I8qZs2oaMR3Apf6F48qMZtWzZ3K2zbq3DjEO8EhnhMGxBpw+dHBTUQfVWaMLQ50/fr6unZdrwXhhW4Zhqk/7vdGzozMcZX6EcO+Qyopl/tmroqNWu68Txh2McOS81GlO+rWWoQ6bYD1sY8vSFhrxhH1SRR1fEYZJRHnDAlmpNXuf18ezLZqOzUT6WvwjLIZU8+VdAVKCVd0sC0Z0zmxLcMyqsZe1doaG/sHdfPA3K2Ze7vvJowpIerhiI1IeEUdARgxPF8IdmPP2jL266a5i/SNRCArM4CNBp47JFc0Im6LeF5UyiK6usCGw+DU5YxpID3HqwQ9XIWjEC9mY8o8Upb9MAiJA4Z60N7H5HoQKvuNFz3Ajmc0ZMs2XpaWdRqRcLDg1ijHaqN24LOGR0J2uoBLJS7cOSBsFsYE6fcgM6Y2jRz4pn5MXHuKvSjPVECisyC8jBbYIccQsDqXce17AXbBsxiNGHWiTMAaBp2EwQJEwu7NwHMPQWxCvQGTyu76YGS+cTMILlfFF5FIeIHwB7jVOU7lr8HRaBZcD3xvOYonkRPSCXHbzYR6Iw7x2FPcrThiwRy0yEBIwnKQfv+tJfxAuK1iUJs4dI69Ew8sGdl1EFQAoEbMgillrcCL535q0hUoOoNDjclNesh0jQZwwz43fOB3/YReesNGVJFhGFyne64jhB1y4EbkJI62jlglbgMsucF1jLgUfspD6kE1yF9HDlp0jNGMELbRKyQG8cR3yOuL3fA8pGdLBK4J/g1q2AaUiKr4HRvGgfiFbVM06vju/XQJEh3H88EEYvhKHMg2AbcCQnAEr+lh/xKgZ5TNjhuJ6hswSB74Xvp1HIJoXXh4KcCpUfIw1PUdL3aJTAJdfyo8kuumqO/FozVQD+Ka5wAyxbEHdYZBlrjIEsAKGDWiy1WaPAidhl5yfzav4hGUcced1xzIf7xU1ZxgzgE6VM+zEdLz9DyJO6TjX/SwfxFDmkzNtApPvYcH+DjEfsTPk2bFFUfaTIQSs8tsba/fHdJXSNCYzBdBiL0+2IQexr6oeirbgxH7mM3UCoLSI07OwAlrylVUKtH5TWQiuuQJePbOR1cOKqi4P8tmQUZ2EYb4GfuBC+Uae3QSFvxnIw4uK6ttiSfx05Wsc4n9oWGEvPE9suRdRLZQ8PFyQWwzQYgVaoFK9mi4tWdtG3ULcjJfI3HiIcGe1oFWkhGt61+RiM2B7UAbkoi68EWxd6C9QyaEQjwLE6mIKs2d50OHIflRDC3xUqjSAH2LkCIBZMoL6mNvnTDFZAz2OcGht8wRyqP2Agfo7n72n9vfPnv5/LO7D568/uIn//vnr1/+6+Pbpz+Fj7u//f32w1/JY0piNMYTjwiFxs29PaO+BY6WghA3ri4Kuxs7TMDOz0U5T9dINaBi0ep0W0e9JnhUDpiw81Yh5sHQw8sgzpYjeQixkbhSPfEESWKPhbxsXcC2Ca/hMgp5r3lFitR5/H2M0havXnz26sVf7uVWBsvKhrm/v101rTdWFcswzTW6tKrwHl52bmpCMLeqxnbVsnLEKzRoCIMONGqpnbquXTeNfcOqG2aiP8ASR95EtIpSksb4Ql/hk6BWEPssXKYukF8nSOH4YwiRFC1DIbdQLvrFz1//9UmBSllXQYpSQLkgDqU36clCiD4ejrXR4HTY6mjjzoj7SYbL0UnhX0Osdk/jqeBUvh9j7y0Yb/lwq1Wgl6towVQj2JlpS4jEXBwWnG0TVG70QJGrWh6FQbyQN5JjyKAbKNNsspFjQ64ROGHPtaSToTaQS11v//H5JgZ1EOVmpz5l9rDf1OZ+6pcChgoYCcrhVdR++u+XX77/8vnzu2e/uP3yxwUJap90qgE/h2jKL1O3h5Sn6s0KBJ2NhDEvjR/k6osC8p7wJKA+i2xzR7SDaoWA1eTSxF/UnUPJE4KFvQC+AkHv4Khzw1Rg28dILwJAzwWGahtkXXMKkDk8s+t/f/f7u998fvfJs9fv//n2gz/dfvjJqxd/eP30jzLq7p48u/voqcryq4VA6MJ7cdkBamK6czQejRqv3dpX7/1S8wOmQc+hxSIjffXepzlhXFHRnWSSoZ1LFSmqsEaaZ+Z8Wk6VVIcCX8oiG4AWL2H1lEIVsWBBnWyTd6tcFI87gfhOd1yNI6IF0E59F05SJM6YvymfYpEl9WTXsExLYaU2/AgTHOVMf+QFE2gyEoQYnVZIClxfz5DRiv2OeoNmo5eRSCUGoQuTlsHnP/6BulHSVaZzQgYBLDR7TuzxCXeNbB2Fkq9c6tLVqDhtuDzlbZ60ChQwcIehbIJ89c44ihfQATPVtN6PFy8tuZ73WPan+S44W3fbRTysc1gofkU0Bwi8SEcKJVNTN+JTqWxhj7lpsiXgCq8zYA71lCi7qyvoJUOd55pOGAbhxoSTYRKyPnTPkEX0zOIpjc63lJ22m91VAkiSXPrBe/U0FwZt4hFW+p0t4e4HVw/mhbsvy9qNBp6rjFlu3EjNkgnIPzZyRymrTCMMoW3iDxOlXwd71L/slju9vW0QTIyJC53o1s6WtTex9idke6dubpOdXTKFxlEI5eMnF8EnFz67ldsEmsUiezZjD2HqLilNGlgw8lkULCUCUiX2dI0OaRixxzxFqS8JOU8h57J1fsz1kx9ifS4KsfxSL9BqM72gdZJfmHyXDrwendOS86qRJKGiEHCDxUL2lmUvFGreMbmBzjcnAbL15IdQz/gsVk6ajCpI8il/ImsUT0qL0xPmE8Bzx3oYd8eFvuzh3OKNl3rfQgHReT1URNeP6MWMlb1Xa3+/TnaIVbWmjlPdgkUVqvGk6uLpvmkY07q7bfG3OSUcqgMl1yU34TWFRjBXlOfTV/5NZ/8fBFx4c98bAAA=</t>
+          <t>BxoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAkkpJ34zVmGehmR6hkGZJcr/NSjMixNfWIVMmhbb0lQIoUaYqiKDZFekWfUhTodtEmQLrby78Ea+/2qb/QMxcOSUnOVtuFseac25w5c65j9M71nFmXJE5oFD6suDWnYpHQjwIanj+spPys6t6vvOOh7rVP2BGO8ZxwILaAK0z2rhP6sDLjfLFn21dXV7WrRi2Kz+2647j2o0F/7M/IHFdpmHAc+qRiuILXc1U81A7mA8JxgDlWnA8rvXGv1ibU7wBsgEN8TuJaK01oSJKkG3LKKUkEZ0wwJ+3O4LvqYF69dr/mInsNnlO2UsoCRVeiVHBNB9uSCZ0Tr+64u1Vnt9pwJ66z5zT26js15/7uexmjIUR9nPAxiS+pLwFjjucLye7sNlzXcRr1HWRvJAJZuQE8NGTBiFzShARtwliylUVsfYFNn8OptzOmg+wCrxb05iocxHgxm1DOyHZqjAYtax5qXXIhHtqPYuKD/d5IpUNyNYy1WSeLPmAnMxrzZQcvt5Z1nJB4uBBG2o7VQ50o5E1GYn68gLsmAbgCIDwepwTZdyBzpg5NfPimYUoC7wyzpMhUQqKTKL5IFtgnhxDHtpBxFbIIB+BwnCac+kkuYA2DjuJoASJh91bEgn0Qm1FvwBjZvRCMLDZuRdHFqvgyEsl7lTcMtzrHRv4aHI1n0dUwZMtxOk38mE5J0Gll1BtxSISk5m6nCY/moEUOQgpWgAwGby3hH0ThKgZ1iE/nmB0xsGTiNUBQCYCaKY/OKG9HLJ2HxqQrUHQCh5qQa3NIs0ZDuOFQGD4Ke2FGr7xhI6rMMIquzJ7rCGmHAriZ+JmjrSNWiTsAy25wHSMvRZxynzIoEsXrKEDLjjGeEcI3eoXCIJEP90XZ8ZqMITtfInBN8G9Qw3OgclTlz8SBbCx+YFuDRt0wuJsuQ6LDdD6cQgxfygN5LuBWQAiOwFoMhxcAPaF8dtjMVN+AQerAd9Kv4xBE64LhpQQboxRhqBf6LA2ISgK98Ex6pNBNU9+JR2ugPsS1h3C4nCwXIhnYd1B0yBlOGdQnDmnkPM8QK2DUTC5WaYogdByz7II9Uf0TKP9+MK/5kCBFiav50VwAbKi6J2NkF+lFlvdJNzzv4/A8hTxq7LgKN+4lMsAkxmEijmPS5oqnbSZC2b2odO6tXy6yV0jQhMwXUYzZAGxC99NQVktdDsC4A8xnegVRy4if2dfOWQ1XWalM59eRyfBTJxDpvRh+BaikEg6vmgwV+mUYEmccRAGUeczoNC452EYcXFZe/DJXE6fbshBm9odGExLLd8hSdB/5QsOFv3puhpAr1AaVvPFoZ7d+D1oqSNpijeSJRwQzqwstKCdWL7wkCZ8D2541IgkN4Ititme9S6aEQsBLE+mQ25q7yIf2Y/KDFFrppVSlCfqWIWUCSKXnNMRsndBgcgbvlOCYLQuE6qj9yAe62x/96+bXT188+/z248evvvzwP3//5Yt//PTmyQ/h4/Yvf7355BfqmIoYTfCUEanQpLW76zSgG81BSKcGqO9B6nMJOz2V9d6skW5c5aLd7bUP+i2ZSwwwYxe9RCqCoY+XUZovx+oQciN5pXbmCYrEm2S5Sa9L2A4RRV5FoehRL0mZuoi/i1HZ4uXzz18+/9Od3NpgeV1xHzy4V3Xrry070O27a3Sm7IjeX7V22WSxU3XuVev1AvEKDRrBgASdnLFTL/AarvPAqTcc1+TxwDjyJqJVlJY0wef2Cp8CtaM05PHSuEBxnSGl408gRAxahUJhoV30yx+/+vPjEpW2roaUpYByURorb7KzhRR9OJpY4+HxqN21Jt2x8JMcV6BTwr+BWO9u4qnkVGGYYvYWjMViKLYq0OxVrOjMItifWUuIxEIclpxtE1Rt9IYiV7U8iKN0oW6kwJBDN1CabLKRY0OukThpz7Wkk6M2kCtdb/72xSYGfRDtZsch5Wa+K8JQCaNABbyO2s/++eKrj148e3b79Gc3X31QkqD3MWMP+DlEU3Fp3B5Snq43KxB0MpbGvHC+V6gvGiiaxqOIhjzx3PuyX9QrBKyukCZ/o94cSp4ULO0F8BUIehcn3WuuA9s7RHYZAHouMFTbKG+rDUDl8Nyu//7Nb29/9cXtp09fffTHm4//cPPJpy+f/+7Vk9+rqLt9/PT2J090ll8tBFIX0ayrBtCS459viWi0RO22vn7/51YYcQt6DiuVGenr9z8rCBOKyu4klwztnFGkrMIaaZFZ8FkFVYwOJT7DohqAtihhDUOhi1i0oH6+yXtVIUrEnUR8qzeppgmxIminvg0nKRPnzP8rn2ZRJfXobafu1jVWaSOOMMVJwfQHLJpCk5Eh5Gy1QlLi+maGnFbud9Aftpr9nEQpMYwDGMUcMSCKD5T1lKKk9JJsZYaKHAJYaPz8lIlxeI1sHWUkF9KYrefKs2Yg0t/msaxEAdN5HKuGKNRvleN0Ad0w1w3s3Xj5LFPofw9Vr1rsiPN1r1PGw7qAhUJYRguAxMvUpFEqTfUSMcKqdvZQmCZfAq70lAPm0M+RqtO6hL4ytkXe6cZxFG9MPjkmIxtAJw0Zxc4tbmjknaquO8jvKgNkCc98qKlPnzDqEEb4dm91ds49iC7fmBfuflvWXjJkgTbmdqOHMUsuoPhgKRzl/32vVM7WjGNorMTbxtYPjNnQOoJZd0tt1FEko5gAYXf9ArhP44Q/EplAfynIqYGcqg71kRi41Idcn8p6p770IbV0u6RmFrpcPRtHrE/ndMux0MniuywEbLlYqBaut52niNJySK6hwSxIgKQ4/T6UDTHybCdNOSzkUsMv3mkSej7j2yr29hSTgEydqj8l9epO4OxWHxDSqLou/I/9et1x7olHHi0cMgclV1tuYmcXlv85x/svpOCSXAcaAAA=</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM,yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -522,37 +522,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>17</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{458C142F-7696-47E4-9E62-4FAD5663B1E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>